--- a/Data/sampleData/Treasure Hunt Sample data.xlsx
+++ b/Data/sampleData/Treasure Hunt Sample data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538336\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538336\Documents\691\The-Hunt\Data\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="5580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="5580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="quests" sheetId="1" r:id="rId1"/>
@@ -897,6 +897,9 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,9 +918,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,7 +1187,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1662,7 +1662,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -1685,10 +1685,10 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="52">
+      <c r="A2" s="46">
         <v>204</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1728,10 +1728,10 @@
       <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="52">
+      <c r="A3" s="46">
         <v>194</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1827,7 +1827,7 @@
       <c r="D2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="51" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="30">
@@ -1859,7 +1859,7 @@
       <c r="D4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="30">
@@ -1874,7 +1874,7 @@
       <c r="D5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="51" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="D6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="30">
@@ -1906,7 +1906,7 @@
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="33">
@@ -1921,7 +1921,7 @@
       <c r="D8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="48" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       <c r="D9" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="35">
@@ -1953,7 +1953,7 @@
       <c r="D10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="35">
@@ -1968,7 +1968,7 @@
       <c r="D11" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="48" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="D12" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="39">
@@ -2000,7 +2000,7 @@
       <c r="D13" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="35">
@@ -2015,7 +2015,7 @@
       <c r="D14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="48" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="D15" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="35">
@@ -2047,7 +2047,7 @@
       <c r="D16" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="37">
@@ -2062,7 +2062,7 @@
       <c r="D17" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       <c r="D18" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="35">
@@ -2094,7 +2094,7 @@
       <c r="D19" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2234,11 +2234,14 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="42" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="44" t="s">
